--- a/biology/Botanique/Phlegmariurus/Phlegmariurus.xlsx
+++ b/biology/Botanique/Phlegmariurus/Phlegmariurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phlegmariurus est un genre de plantes lycophytes de la famille des Lycopodiaceae. Le genre est reconnu par la classification PPG I (2016)[1], mais pas par d'autres sources, qui le maintiennent dans Huperzia largement défini. Ces plantes sont appelées « Hanging firmoss » en anglais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phlegmariurus est un genre de plantes lycophytes de la famille des Lycopodiaceae. Le genre est reconnu par la classification PPG I (2016), mais pas par d'autres sources, qui le maintiennent dans Huperzia largement défini. Ces plantes sont appelées « Hanging firmoss » en anglais.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit pour la première fois en 1909 par Wilhelm Herter comme la section Phlegmariurus du genre Lycopodium. La section a été élevée au rang de genre par Josef Ludwig Holub en 1964[2].
-Au sein de la famille des Lycopodiaceae, Phlegmariurus est placé dans la sous-famille des Huperzioideae[3]. Une étude phylogénétique réalisée en 2016, utilisant à la fois des données moléculaires et morphologiques, a conclu qu'une division en un ou trois genres de la sous-famille produisait des taxons monophylétiques. Les auteurs ont préféré la division en trois genres, reconnaissant Huperzia, Phlegmariurus et Phylloglossum. Leur hypothèse préférée pour les relations entre les trois genres était la suivante[4] :
-La majorité des espèces autrefois placées dans le groupe Huperzia au sens large appartiennent à Phlegmariurus[4]. Cependant, les genres sont difficiles à séparer morphologiquement, et d'autres[5],[6],[7] préfèrent la fusion dans le seul genre Huperzia.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit pour la première fois en 1909 par Wilhelm Herter comme la section Phlegmariurus du genre Lycopodium. La section a été élevée au rang de genre par Josef Ludwig Holub en 1964.
+Au sein de la famille des Lycopodiaceae, Phlegmariurus est placé dans la sous-famille des Huperzioideae. Une étude phylogénétique réalisée en 2016, utilisant à la fois des données moléculaires et morphologiques, a conclu qu'une division en un ou trois genres de la sous-famille produisait des taxons monophylétiques. Les auteurs ont préféré la division en trois genres, reconnaissant Huperzia, Phlegmariurus et Phylloglossum. Leur hypothèse préférée pour les relations entre les trois genres était la suivante :
+La majorité des espèces autrefois placées dans le groupe Huperzia au sens large appartiennent à Phlegmariurus. Cependant, les genres sont difficiles à séparer morphologiquement, et d'autres préfèrent la fusion dans le seul genre Huperzia.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (2 janvier 2024)[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (2 janvier 2024) :
 Phlegmariurus acerosus (Sw.) B.Øllg.
 Phlegmariurus acifolius (Rolleri) B.Øllg.
 Phlegmariurus acutus (Rolleri) B.Øllg.
